--- a/Sandbox.OpenXML/HyperlinkExample.xlsx
+++ b/Sandbox.OpenXML/HyperlinkExample.xlsx
@@ -1,20 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josueg\Documents\Projects\OpenXMLSample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+  </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HyperlinkExample" sheetId="1" r:id="Rd0b960ecce1b4431"/>
+    <x:sheet name="Hyperlink" sheetId="1" r:id="rId1"/>
   </x:sheets>
+  <x:calcPr calcId="152511" calcOnSave="0"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <x:si>
+    <x:t>Directive Boards</x:t>
+  </x:si>
+</x:sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
+</file>
+
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row>
-      <x:c t="str">
-        <x:v>This is example of adding hyperlinks to a worksheet.</x:v>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A1" r:id="rId1"/>
+  </x:hyperlinks>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>
 </file>
--- a/Sandbox.OpenXML/HyperlinkExample.xlsx
+++ b/Sandbox.OpenXML/HyperlinkExample.xlsx
@@ -1,25 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josueg\Documents\Projects\OpenXMLSample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
-  </x:bookViews>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
   <x:sheets>
     <x:sheet name="Hyperlink" sheetId="1" r:id="rId1"/>
   </x:sheets>
-  <x:calcPr calcId="152511" calcOnSave="0"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
 </x:workbook>
 </file>
 
@@ -94,11 +78,6 @@
 
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
     <x:col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
   </x:cols>
@@ -112,6 +91,5 @@
   <x:hyperlinks>
     <x:hyperlink ref="A1" r:id="rId1"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>
 </file>
--- a/Sandbox.OpenXML/HyperlinkExample.xlsx
+++ b/Sandbox.OpenXML/HyperlinkExample.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+<x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Hyperlink" sheetId="1" r:id="rId1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlink" sheetId="1" r:id="rId1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -77,19 +77,19 @@
 </file>
 
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:cols>
     <x:col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <x:row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" spans="1:1" x14ac:dyDescent="0.35">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A1" r:id="rId1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="rId1"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/Sandbox.OpenXML/HyperlinkExample.xlsx
+++ b/Sandbox.OpenXML/HyperlinkExample.xlsx
@@ -89,7 +89,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="rId1"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="dbLink"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/Sandbox.OpenXML/HyperlinkExample.xlsx
+++ b/Sandbox.OpenXML/HyperlinkExample.xlsx
@@ -10,7 +10,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <x:si>
-    <x:t>Directive Boards</x:t>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Click here to visit </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:u/>
+        <x:sz val="11"/>
+        <x:color theme="10"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Directive Boards</x:t>
+    </x:r>
   </x:si>
 </x:sst>
 </file>
